--- a/rank.xlsx
+++ b/rank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binzhu/2025/Projects/team_rank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4693B-78EE-6F47-8B41-798D5C8ACBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E910BD-8CE0-5040-90C3-8A54C2EE75E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35740" yWindow="10480" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{C2127820-096B-024F-AAEE-160E8A8BEE19}"/>
+    <workbookView xWindow="-35740" yWindow="10480" windowWidth="27240" windowHeight="16440" xr2:uid="{C2127820-096B-024F-AAEE-160E8A8BEE19}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA83FD-6774-984C-9673-63CBC2A798DE}">
   <dimension ref="A1:AU29"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,7 +802,7 @@
         <v>47</v>
       </c>
       <c r="B2">
-        <v>0.87</v>
+        <v>870</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -814,127 +814,127 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P2">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU2">
         <v>0.5</v>
@@ -945,7 +945,7 @@
         <v>48</v>
       </c>
       <c r="B3">
-        <v>0.64</v>
+        <v>640</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -957,127 +957,127 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P3">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU3">
         <v>0.5</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="B4">
-        <v>0.91</v>
+        <v>910</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1100,127 +1100,127 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU4">
         <v>0.5</v>
@@ -1231,7 +1231,7 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>0.78</v>
+        <v>780</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1243,127 +1243,127 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O5">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU5">
         <v>0.5</v>
@@ -1374,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="B6">
-        <v>0.55000000000000004</v>
+        <v>550</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1386,127 +1386,127 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P6">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU6">
         <v>0.5</v>
@@ -1517,7 +1517,7 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <v>0.69</v>
+        <v>690</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1529,127 +1529,127 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU7">
         <v>0.5</v>
@@ -1660,7 +1660,7 @@
         <v>53</v>
       </c>
       <c r="B8">
-        <v>0.82</v>
+        <v>820</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1672,127 +1672,127 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="O8">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU8">
         <v>0.5</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.88</v>
+        <v>880</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1815,127 +1815,127 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W9">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X9">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU9">
         <v>0.5</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.73</v>
+        <v>730</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1958,127 +1958,127 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X10">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y10">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z10">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU10">
         <v>0.5</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.67</v>
+        <v>670</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2101,127 +2101,127 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W11">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y11">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z11">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU11">
         <v>0.5</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.79</v>
+        <v>790</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2244,127 +2244,127 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W12">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X12">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y12">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z12">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU12">
         <v>0.5</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.62</v>
+        <v>620</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2387,127 +2387,127 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W13">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X13">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y13">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z13">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU13">
         <v>0.5</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.84</v>
+        <v>840</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2530,127 +2530,127 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W14">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X14">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y14">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z14">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA14">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU14">
         <v>0.5</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.71</v>
+        <v>710</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2673,127 +2673,127 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="W15">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="X15">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="Y15">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="Z15">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU15">
         <v>0.5</v>
@@ -2810,133 +2810,133 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.93</v>
+        <v>930</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB16">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC16">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD16">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE16">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF16">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH16">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI16">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ16">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK16">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU16">
         <v>0.5</v>
@@ -2953,133 +2953,133 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.85</v>
+        <v>850</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB17">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC17">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD17">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF17">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG17">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH17">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI17">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ17">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK17">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU17">
         <v>0.5</v>
@@ -3096,133 +3096,133 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.74</v>
+        <v>740</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB18">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC18">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD18">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE18">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF18">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG18">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH18">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI18">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ18">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK18">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU18">
         <v>0.5</v>
@@ -3239,133 +3239,133 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.68</v>
+        <v>680</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB19">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC19">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD19">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE19">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF19">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG19">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH19">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI19">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ19">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK19">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU19">
         <v>0.5</v>
@@ -3382,133 +3382,133 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>800</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB20">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC20">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD20">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE20">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF20">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG20">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH20">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI20">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ20">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK20">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU20">
         <v>0.5</v>
@@ -3525,133 +3525,133 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.77</v>
+        <v>770</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB21">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC21">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE21">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF21">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG21">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH21">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI21">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ21">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK21">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU21">
         <v>0.5</v>
@@ -3668,133 +3668,133 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.66</v>
+        <v>660</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB22">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC22">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AD22">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AE22">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AF22">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AG22">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AH22">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AI22">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AJ22">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK22">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="AL22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AM22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AR22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AS22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AU22">
         <v>0.5</v>
@@ -3814,130 +3814,130 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="F23">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK23">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL23">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM23">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN23">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP23">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ23">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR23">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS23">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT23">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU23">
         <v>0.95</v>
@@ -3957,130 +3957,130 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.76</v>
+        <v>760</v>
       </c>
       <c r="F24">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK24">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL24">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM24">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN24">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP24">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ24">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR24">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS24">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT24">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU24">
         <v>0.95</v>
@@ -4100,130 +4100,130 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.83</v>
+        <v>830</v>
       </c>
       <c r="F25">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK25">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL25">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM25">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN25">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP25">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ25">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR25">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS25">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT25">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU25">
         <v>0.95</v>
@@ -4243,130 +4243,130 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.72</v>
+        <v>720</v>
       </c>
       <c r="F26">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK26">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL26">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM26">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN26">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP26">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ26">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR26">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS26">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT26">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU26">
         <v>0.95</v>
@@ -4386,130 +4386,130 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.88</v>
+        <v>880</v>
       </c>
       <c r="F27">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK27">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL27">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM27">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN27">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP27">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ27">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR27">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS27">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT27">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU27">
         <v>0.95</v>
@@ -4529,130 +4529,130 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.69</v>
+        <v>690</v>
       </c>
       <c r="F28">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK28">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL28">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM28">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN28">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP28">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ28">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR28">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS28">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT28">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU28">
         <v>0.95</v>
@@ -4672,130 +4672,130 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.81</v>
+        <v>810</v>
       </c>
       <c r="F29">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="Z29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AB29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AD29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AE29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AF29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AG29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AH29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AI29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AJ29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AK29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AL29">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AM29">
-        <v>0.23899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AN29">
-        <v>0.32800000000000001</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0.41699999999999998</v>
+        <v>4</v>
       </c>
       <c r="AP29">
-        <v>0.50600000000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ29">
-        <v>0.59399999999999997</v>
+        <v>6</v>
       </c>
       <c r="AR29">
-        <v>0.68300000000000005</v>
+        <v>7</v>
       </c>
       <c r="AS29">
-        <v>0.77200000000000002</v>
+        <v>8</v>
       </c>
       <c r="AT29">
-        <v>0.86099999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU29">
         <v>0.95</v>
@@ -4810,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E630AFF0-3D2B-E145-8A5F-4F4278F0CDA0}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
